--- a/EVALUACION/GRAFICOS DE BARRAS VARIABLES PREDICCION/OPTUNA ARBOL DE DECISION/DISTRITO_prediccion..xlsx
+++ b/EVALUACION/GRAFICOS DE BARRAS VARIABLES PREDICCION/OPTUNA ARBOL DE DECISION/DISTRITO_prediccion..xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\GRAFICOS DE BARRAS VARIABLES PREDICCION\OPTUNA ARBOL DE DECISION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\MINERIA DE DATOS ASESINATOS ZONA 8 DEL ECUADOR\EVALUACION\GRAFICOS DE BARRAS VARIABLES PREDICCION\OPTUNA ARBOL DE DECISION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A6806C-7EB5-4332-A244-71B51CD18F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BD9793-5836-466A-BF6C-7BEB0996BECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8560" yWindow="710" windowWidth="9240" windowHeight="8610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -669,7 +669,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1100</c:v>
+                  <c:v>1154</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>800</c:v>
@@ -1718,7 +1718,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1742,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1100</v>
+        <v>1154</v>
       </c>
       <c r="C2" s="2">
         <v>0.47699999999999998</v>
